--- a/TestData/TestDataSheet.xlsx
+++ b/TestData/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kota.Reddy\IdeaProjects\Rashmi\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147DFB0-9787-4314-ADD5-C2313670186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3060FF71-C891-4B73-A8CD-FB4E63FA7BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4845" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B71A7005-61DB-465D-96CC-1F0D93A58B0D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Passengercount</t>
   </si>
@@ -94,13 +94,22 @@
   </si>
   <si>
     <t>Rashmi123</t>
+  </si>
+  <si>
+    <t>kota</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>Invalid User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +128,14 @@
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -150,6 +167,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,32 +557,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9A44B-5725-448E-B71C-E932C02CC432}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -572,5 +604,6 @@
     <hyperlink ref="B2" r:id="rId1" display="Rashmi@1" xr:uid="{85192EEB-C561-4132-852A-13D0A3F7F693}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>